--- a/data-raw/Data for R_Chiara.xlsx
+++ b/data-raw/Data for R_Chiara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raula.bergen/Library/Mobile Documents/com~apple~CloudDocs/ETH/Masters/Master's Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\durbanplasticwaste\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D80DFA-95BF-9348-BEFB-CC84BEC29C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7B56F7-599B-4049-A695-C8ADA619894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="31940" windowHeight="16940" xr2:uid="{77432CBC-29B0-384C-98D0-99CE227C55D6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15900" windowHeight="12336" xr2:uid="{77432CBC-29B0-384C-98D0-99CE227C55D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,23 +462,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03CD7CC-403F-7D49-9DD8-665D21D71EBE}">
   <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="43.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -519,7 +522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>44823</v>
       </c>
@@ -560,7 +563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>44824</v>
       </c>
@@ -601,7 +604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>44831</v>
       </c>
@@ -642,7 +645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>44834</v>
       </c>
@@ -683,7 +686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>44837</v>
       </c>
@@ -724,7 +727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>44840</v>
       </c>
@@ -765,7 +768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>44845</v>
       </c>
@@ -806,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>44846</v>
       </c>
@@ -847,7 +850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>44852</v>
       </c>
@@ -888,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>44854</v>
       </c>
@@ -926,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>44859</v>
       </c>
@@ -964,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1002,12 +1005,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>21</v>
       </c>
